--- a/output/fit_clients/fit_round_324.xlsx
+++ b/output/fit_clients/fit_round_324.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2325540632.640227</v>
+        <v>2361786092.114884</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07750749225886923</v>
+        <v>0.1122588242216871</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03467100393277452</v>
+        <v>0.04320397936949284</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1162770355.710739</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2479168066.114729</v>
+        <v>1753784352.388656</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1316837288660283</v>
+        <v>0.1321129433568598</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03343168938014902</v>
+        <v>0.04425153229097008</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>8</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1239584147.329785</v>
       </c>
     </row>
     <row r="4">
@@ -564,22 +542,16 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>5174667017.05424</v>
+        <v>4978110461.294032</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1451776330049958</v>
+        <v>0.1152993882389962</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03792125309528373</v>
+        <v>0.025165106048358</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>117</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2587333605.927596</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>4245755462.354079</v>
+        <v>2890391782.968925</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07510771502375509</v>
+        <v>0.08837172705583866</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04607792759684798</v>
+        <v>0.04537805843217169</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>123</v>
-      </c>
-      <c r="J5" t="n">
-        <v>2122877718.647965</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2792519883.545791</v>
+        <v>2144498274.855652</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1093289893421891</v>
+        <v>0.1274188948533793</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04884217462524005</v>
+        <v>0.03554271325647052</v>
       </c>
       <c r="H6" t="b">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>61</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1396259885.603021</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2220545227.935934</v>
+        <v>2920762248.160914</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06455290788728012</v>
+        <v>0.08679099547435719</v>
       </c>
       <c r="G7" t="n">
-        <v>0.02998078993537987</v>
+        <v>0.04881168561494452</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>100</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1110272653.906492</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3574369119.616699</v>
+        <v>3074142826.415226</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1841935917099145</v>
+        <v>0.2023544416643891</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03025253472576847</v>
+        <v>0.02507620547623594</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>104</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1787184676.044094</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1430419246.239126</v>
+        <v>1928596875.106078</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1295386642528837</v>
+        <v>0.1198441104476716</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03031799032732775</v>
+        <v>0.02538210390969228</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>715209728.7619535</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5497660419.879971</v>
+        <v>4739372472.012953</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1595739435907512</v>
+        <v>0.1619765924496871</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03382981856782782</v>
+        <v>0.04218889067005013</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>136</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2748830347.792608</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3430700444.828648</v>
+        <v>4119769260.45845</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1531109013010446</v>
+        <v>0.1173855689420748</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03708397558474239</v>
+        <v>0.03381013883009652</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>133</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1715350195.400649</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2927020467.922936</v>
+        <v>2873536874.957894</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1573355728787926</v>
+        <v>0.163234445948704</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03629177232092351</v>
+        <v>0.03698161270475332</v>
       </c>
       <c r="H12" t="b">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>110</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1463510245.306684</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -870,22 +794,16 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3608152932.226295</v>
+        <v>3220573159.879709</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08040391562048964</v>
+        <v>0.0858091231722604</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02811916155621794</v>
+        <v>0.02848116199764121</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>108</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1804076540.948684</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2554462614.816444</v>
+        <v>2731618927.601556</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1603485750905615</v>
+        <v>0.1163282162112601</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04124105285345517</v>
+        <v>0.03514529594728986</v>
       </c>
       <c r="H14" t="b">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>105</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1277231374.113352</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1249234477.713642</v>
+        <v>1415008530.232168</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09504576389331033</v>
+        <v>0.09976673591712903</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04728080433549587</v>
+        <v>0.04630591410592628</v>
       </c>
       <c r="H15" t="b">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>624617267.5056998</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2663790776.596063</v>
+        <v>2612378141.191881</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1079001579386559</v>
+        <v>0.09383727724046646</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04525511457391785</v>
+        <v>0.04736984296973333</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>64</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1331895404.499171</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4770006607.899688</v>
+        <v>3942291761.180293</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1490031515826451</v>
+        <v>0.1131291489308072</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03920017232280246</v>
+        <v>0.04017582780594872</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>94</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2385003300.513678</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2606293664.171389</v>
+        <v>3731472008.44781</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1236303466619776</v>
+        <v>0.1241776156880262</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02317032245061577</v>
+        <v>0.02174534725636878</v>
       </c>
       <c r="H18" t="b">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>106</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1303146890.859014</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -1074,22 +962,16 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1023923597.832342</v>
+        <v>1262339506.671274</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1322281681870247</v>
+        <v>0.12566870124546</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02121026989191125</v>
+        <v>0.0172269381802099</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>511961834.0132541</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1699111885.349685</v>
+        <v>1797743459.547876</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1565854890815808</v>
+        <v>0.149720285941064</v>
       </c>
       <c r="G20" t="n">
-        <v>0.01972090778361641</v>
+        <v>0.02414730683628263</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>43</v>
-      </c>
-      <c r="J20" t="n">
-        <v>849556001.0844854</v>
       </c>
     </row>
     <row r="21">
@@ -1142,22 +1018,16 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2257448259.399496</v>
+        <v>2164092723.214489</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06939575608268433</v>
+        <v>0.07276630261373089</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03154674273596456</v>
+        <v>0.03762971335475306</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>27</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1128724141.030899</v>
       </c>
     </row>
     <row r="22">
@@ -1176,22 +1046,16 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3780184945.843549</v>
+        <v>3170635476.098865</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1094804224414368</v>
+        <v>0.09843637219651763</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04651729080140766</v>
+        <v>0.05618738681052559</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>91</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1890092487.740223</v>
       </c>
     </row>
     <row r="23">
@@ -1210,22 +1074,16 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1286266648.935253</v>
+        <v>1029422899.255949</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1731170381440055</v>
+        <v>0.1818811423264143</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03971909629584885</v>
+        <v>0.03824057903643016</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>643133346.4413309</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2829608569.765959</v>
+        <v>2559354694.852167</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1090156062967615</v>
+        <v>0.09218984670494297</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02536978390329118</v>
+        <v>0.03707796473674885</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>94</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1414804331.572028</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1108381389.555317</v>
+        <v>1379960248.134243</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1024096169768724</v>
+        <v>0.1188252335963015</v>
       </c>
       <c r="G25" t="n">
-        <v>0.03083081301206178</v>
+        <v>0.030850491549199</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>554190733.823558</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1441885393.534307</v>
+        <v>897557556.5465499</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1226343143929433</v>
+        <v>0.1148379944968586</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0354060277385906</v>
+        <v>0.032930267891153</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>720942777.0574039</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3728700110.7522</v>
+        <v>3273306166.725439</v>
       </c>
       <c r="F27" t="n">
-        <v>0.09916551613382381</v>
+        <v>0.09502789422781484</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01879220919534838</v>
+        <v>0.02705423131288184</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>84</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1864350078.987324</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2528802392.087958</v>
+        <v>3578658364.753891</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1516071553447233</v>
+        <v>0.1047889521753365</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03561272878622133</v>
+        <v>0.03263230777039852</v>
       </c>
       <c r="H28" t="b">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>107</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1264401166.393781</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4353736171.831152</v>
+        <v>3996069197.460039</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1342158863515354</v>
+        <v>0.1025628508516547</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04421064966823277</v>
+        <v>0.04229195225130655</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>142</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2176868078.306124</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2294912904.767634</v>
+        <v>2236153575.991189</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1370693453142846</v>
+        <v>0.09132919925662811</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0336479667632596</v>
+        <v>0.03038964414990189</v>
       </c>
       <c r="H30" t="b">
-        <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>1147456523.41924</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1019165558.951595</v>
+        <v>1370642739.005674</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0679271087416226</v>
+        <v>0.1032666775870978</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03508393416194613</v>
+        <v>0.0398421053173627</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>509582773.5130954</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1832063343.343573</v>
+        <v>1829156494.387789</v>
       </c>
       <c r="F32" t="n">
-        <v>0.09670534800445625</v>
+        <v>0.09380896977489922</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02649309979543515</v>
+        <v>0.02838914611502505</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>916031808.8137364</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>3057662945.42561</v>
+        <v>2917890657.935948</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1693867952743834</v>
+        <v>0.208532960402752</v>
       </c>
       <c r="G33" t="n">
-        <v>0.03768692752967116</v>
+        <v>0.05456688379179112</v>
       </c>
       <c r="H33" t="b">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>96</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1528831463.425418</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1584,22 +1382,16 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1009609393.760392</v>
+        <v>1002019264.293406</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08336579931857854</v>
+        <v>0.07514829538054327</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02257154389945512</v>
+        <v>0.02726332335040559</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>504804733.2050578</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1305443639.854599</v>
+        <v>1050006042.675724</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09086095875959045</v>
+        <v>0.08351735797472847</v>
       </c>
       <c r="G35" t="n">
-        <v>0.0422518237722262</v>
+        <v>0.04074069734397913</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>652721771.530594</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2718407615.168091</v>
+        <v>2219223408.120481</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1264306818649678</v>
+        <v>0.1600922857978856</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01855483940135322</v>
+        <v>0.02350570536688374</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>81</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1359203812.067317</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2773988638.422919</v>
+        <v>1918089529.457244</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0923352298597164</v>
+        <v>0.07538969007891735</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03529039703920398</v>
+        <v>0.04011463046532984</v>
       </c>
       <c r="H37" t="b">
         <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>87</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1386994452.957464</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1374440035.330042</v>
+        <v>2018484569.300703</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1064496822627388</v>
+        <v>0.08532570163960967</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02801139317992508</v>
+        <v>0.03656261565950995</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>687220084.6666983</v>
       </c>
     </row>
     <row r="39">
@@ -1754,22 +1522,16 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1486317836.216636</v>
+        <v>1702693746.657832</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1310524095207489</v>
+        <v>0.1393038372746487</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02111819636731476</v>
+        <v>0.02296239484931331</v>
       </c>
       <c r="H39" t="b">
-        <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>743158990.6322014</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1334192560.961939</v>
+        <v>1796485346.088166</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1035865608607938</v>
+        <v>0.1363365501241642</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05574165645761249</v>
+        <v>0.04711575711355344</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>667096288.1874577</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>1854125055.533355</v>
+        <v>2500134904.873184</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1599579935808781</v>
+        <v>0.1331131035616017</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03565682790470534</v>
+        <v>0.02957326603763235</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>81</v>
-      </c>
-      <c r="J41" t="n">
-        <v>927062616.2766395</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2727907949.35041</v>
+        <v>2628805947.152844</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08631320160964877</v>
+        <v>0.08691377283445846</v>
       </c>
       <c r="G42" t="n">
-        <v>0.0322135385983771</v>
+        <v>0.03139687284367017</v>
       </c>
       <c r="H42" t="b">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>104</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1363953916.393765</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2486036766.944465</v>
+        <v>2616525000.140773</v>
       </c>
       <c r="F43" t="n">
-        <v>0.2031619534386468</v>
+        <v>0.1765554045219582</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01966370634815987</v>
+        <v>0.02113749154724255</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>116</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1243018433.527335</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2170180167.403821</v>
+        <v>2262872588.241626</v>
       </c>
       <c r="F44" t="n">
-        <v>0.1008239381307081</v>
+        <v>0.07179375781886514</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03390911613018915</v>
+        <v>0.03687247222439698</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>1085090224.005299</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2297350517.998198</v>
+        <v>1797733458.007768</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1575774753233343</v>
+        <v>0.1938938730380007</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04863767847022482</v>
+        <v>0.03723250334582189</v>
       </c>
       <c r="H45" t="b">
-        <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1148675279.844268</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
@@ -1992,22 +1718,16 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5536975780.373859</v>
+        <v>4328877324.741282</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1266337780367528</v>
+        <v>0.1616911864174005</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04926711591562881</v>
+        <v>0.04129452707046803</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>115</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2768487947.711854</v>
       </c>
     </row>
     <row r="47">
@@ -2026,22 +1746,16 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4113193161.712253</v>
+        <v>4589519501.925003</v>
       </c>
       <c r="F47" t="n">
-        <v>0.2034553683303998</v>
+        <v>0.1618452512792074</v>
       </c>
       <c r="G47" t="n">
-        <v>0.0508771947831738</v>
+        <v>0.03600188608173634</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>86</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2056596586.448401</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -2060,22 +1774,16 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4646295892.911118</v>
+        <v>3709658701.370325</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07326695568509708</v>
+        <v>0.09344029442385843</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03700777854765425</v>
+        <v>0.0327696542474614</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>106</v>
-      </c>
-      <c r="J48" t="n">
-        <v>2323147943.292083</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1434595488.489308</v>
+        <v>1501872423.286481</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1203570476468098</v>
+        <v>0.1518666563203421</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03988957101046531</v>
+        <v>0.04354657184203501</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>717297786.4325107</v>
       </c>
     </row>
     <row r="50">
@@ -2128,22 +1830,16 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3521093953.303547</v>
+        <v>3038487178.467953</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1596040350692227</v>
+        <v>0.1272536395634437</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04080307264594215</v>
+        <v>0.03667140532229872</v>
       </c>
       <c r="H50" t="b">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>110</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1760546999.416378</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -2162,22 +1858,16 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1321395043.121604</v>
+        <v>1476798166.51425</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1202454546532944</v>
+        <v>0.1560266699963075</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03955479330798692</v>
+        <v>0.04272973545116725</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>660697553.448987</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>5256587540.78097</v>
+        <v>3268125738.204003</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1296976934662143</v>
+        <v>0.1024568959745892</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04487408071295443</v>
+        <v>0.04403764414821765</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>133</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2628293752.914761</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3791008383.097921</v>
+        <v>2967925186.174962</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1457913325307627</v>
+        <v>0.1956185113701577</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03548051704470271</v>
+        <v>0.03237608826778815</v>
       </c>
       <c r="H53" t="b">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>92</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1895504169.369874</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -2264,22 +1942,16 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3512487686.543065</v>
+        <v>3649284208.159554</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1357391239880691</v>
+        <v>0.1537847397590709</v>
       </c>
       <c r="G54" t="n">
-        <v>0.05143880562458162</v>
+        <v>0.03730661393098593</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>106</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1756243869.045709</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4610040125.455273</v>
+        <v>3198746075.208288</v>
       </c>
       <c r="F55" t="n">
-        <v>0.193921349144973</v>
+        <v>0.1838885234858451</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02400961973026624</v>
+        <v>0.03110604311432217</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>91</v>
-      </c>
-      <c r="J55" t="n">
-        <v>2305020064.550676</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1618581664.411422</v>
+        <v>1807672185.02328</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1511290241589574</v>
+        <v>0.1214561983851762</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04788510384211694</v>
+        <v>0.05277612523335274</v>
       </c>
       <c r="H56" t="b">
-        <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>809290856.908602</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
@@ -2366,22 +2026,16 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3594353055.499161</v>
+        <v>2839676382.037815</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1707043785941534</v>
+        <v>0.1244176863634516</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01830809808652892</v>
+        <v>0.02723143063989801</v>
       </c>
       <c r="H57" t="b">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>102</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1797176582.062465</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -2400,22 +2054,16 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1516990833.826954</v>
+        <v>1747757320.885116</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1370084706021943</v>
+        <v>0.1619434667507004</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03251628186513027</v>
+        <v>0.03751807120638286</v>
       </c>
       <c r="H58" t="b">
-        <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>758495446.5040935</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5013657583.81117</v>
+        <v>5145548796.507874</v>
       </c>
       <c r="F59" t="n">
-        <v>0.08865075772808545</v>
+        <v>0.1209134924957821</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03366517622008603</v>
+        <v>0.03241713088681149</v>
       </c>
       <c r="H59" t="b">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>92</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2506828718.972413</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2298024263.567901</v>
+        <v>3530986098.198547</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1273719122292238</v>
+        <v>0.1325788764565509</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02567511874086941</v>
+        <v>0.03138417961016769</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>102</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1149012128.505297</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3167434383.840145</v>
+        <v>3372296776.404724</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1639293008424181</v>
+        <v>0.1766356487743764</v>
       </c>
       <c r="G61" t="n">
-        <v>0.0308237778436675</v>
+        <v>0.02185640157497921</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>111</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1583717156.601446</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1707949752.274842</v>
+        <v>1988045040.292904</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1899463943754486</v>
+        <v>0.1332719285769277</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03740832710420242</v>
+        <v>0.03827602501781945</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>853974890.3959149</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4052207410.458511</v>
+        <v>3645539630.260778</v>
       </c>
       <c r="F63" t="n">
-        <v>0.06850845455672282</v>
+        <v>0.09376445131643314</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04382053902816652</v>
+        <v>0.02994204206235039</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>91</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2026103765.272849</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -2604,22 +2222,16 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4890272062.463431</v>
+        <v>3426847724.684987</v>
       </c>
       <c r="F64" t="n">
-        <v>0.121809909395296</v>
+        <v>0.1779089096639898</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02479700443706382</v>
+        <v>0.03317328741451894</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>100</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2445136129.717534</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5918925990.540596</v>
+        <v>4423682019.9139</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1054910896356758</v>
+        <v>0.1441738352170236</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02441222139135365</v>
+        <v>0.02969452943595348</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>116</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2959462899.3581</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5536508909.375338</v>
+        <v>4341425374.086484</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1608875714117058</v>
+        <v>0.1436182306243898</v>
       </c>
       <c r="G66" t="n">
-        <v>0.05084528035350108</v>
+        <v>0.05048959445151335</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>94</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2768254510.579429</v>
       </c>
     </row>
     <row r="67">
@@ -2706,22 +2306,16 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2137759059.088013</v>
+        <v>2980560743.56742</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07234468060489342</v>
+        <v>0.09734542993898206</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04916565366186936</v>
+        <v>0.04314064018439809</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>103</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1068879620.836893</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4277397679.987967</v>
+        <v>6032847760.593787</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1072225460209545</v>
+        <v>0.1500832090355463</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03970190662919205</v>
+        <v>0.04229990321489133</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>105</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2138698852.595536</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1763330014.854881</v>
+        <v>2102752820.891484</v>
       </c>
       <c r="F69" t="n">
-        <v>0.133685589449835</v>
+        <v>0.1228028554497989</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05204537398115921</v>
+        <v>0.05971324735255436</v>
       </c>
       <c r="H69" t="b">
-        <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>881664981.7868937</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3523813129.719251</v>
+        <v>3293058393.662834</v>
       </c>
       <c r="F70" t="n">
-        <v>0.1027880958590749</v>
+        <v>0.1019929677195054</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03127244588473781</v>
+        <v>0.04504710502734549</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>92</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1761906575.90413</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3789816705.033834</v>
+        <v>3994686350.836183</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1399319775136524</v>
+        <v>0.1119507738207329</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03009609094463043</v>
+        <v>0.02195804991496499</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>118</v>
-      </c>
-      <c r="J71" t="n">
-        <v>1894908367.882002</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1645472180.976745</v>
+        <v>1615965946.173547</v>
       </c>
       <c r="F72" t="n">
-        <v>0.06557678587891698</v>
+        <v>0.07260022592094226</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03288250970789463</v>
+        <v>0.0386596022154642</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>822736094.0140617</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2847877518.091969</v>
+        <v>3441135525.903066</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09073687090545665</v>
+        <v>0.08167661951104524</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03498315076598447</v>
+        <v>0.04479866826114389</v>
       </c>
       <c r="H73" t="b">
         <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>125</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1423938768.968619</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3948631404.407407</v>
+        <v>3437798997.495621</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1468852555486994</v>
+        <v>0.1596769292151329</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03063464662972648</v>
+        <v>0.03384436182657177</v>
       </c>
       <c r="H74" t="b">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>110</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1974315685.593762</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -2978,22 +2530,16 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1784397463.875192</v>
+        <v>2284837092.961646</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1123632280014049</v>
+        <v>0.1606019340355672</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03410541580238102</v>
+        <v>0.02984187475181733</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>892198716.3076187</v>
       </c>
     </row>
     <row r="76">
@@ -3012,22 +2558,16 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3512023794.982348</v>
+        <v>4699531744.987065</v>
       </c>
       <c r="F76" t="n">
-        <v>0.07727761702537819</v>
+        <v>0.119722775175769</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02780684195455212</v>
+        <v>0.03268630539027659</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>76</v>
-      </c>
-      <c r="J76" t="n">
-        <v>1756011861.777066</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1687117614.673362</v>
+        <v>2134169526.498137</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1153837406531248</v>
+        <v>0.1142821632951784</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02610690505210673</v>
+        <v>0.02596169153093664</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>843558822.6562481</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3027375203.491755</v>
+        <v>4115194931.98693</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1244141548457562</v>
+        <v>0.1004267858394743</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04546828752982758</v>
+        <v>0.03634514768641132</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>112</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1513687637.062499</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1516663332.717572</v>
+        <v>1553634293.344784</v>
       </c>
       <c r="F79" t="n">
-        <v>0.127285173567222</v>
+        <v>0.1554065256192755</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02693325000637601</v>
+        <v>0.03665329325681729</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>758331703.5041482</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3959928127.303607</v>
+        <v>5626268995.070159</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07182636373868909</v>
+        <v>0.07723874840872486</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03484840548478389</v>
+        <v>0.03247153670055211</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>67</v>
-      </c>
-      <c r="J80" t="n">
-        <v>1979964061.133398</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4021936230.829699</v>
+        <v>3315584772.081827</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1172411127404995</v>
+        <v>0.1121075516389051</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02319802953080609</v>
+        <v>0.02301311004712538</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>71</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2010968079.458654</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4357975987.730095</v>
+        <v>4956525920.725498</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1556673871976452</v>
+        <v>0.1431229872055716</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02216360552031759</v>
+        <v>0.02699318386779534</v>
       </c>
       <c r="H82" t="b">
         <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>113</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2178988013.663721</v>
       </c>
     </row>
     <row r="83">
@@ -3250,22 +2754,16 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1591500974.338386</v>
+        <v>2186113786.899124</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1567709752139249</v>
+        <v>0.1250219112187546</v>
       </c>
       <c r="G83" t="n">
-        <v>0.02972952352261472</v>
+        <v>0.03996739106322218</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>795750421.6086814</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1670565775.113386</v>
+        <v>2570744093.100893</v>
       </c>
       <c r="F84" t="n">
-        <v>0.112095930723667</v>
+        <v>0.09833632776107432</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03322001274191751</v>
+        <v>0.04858804378570046</v>
       </c>
       <c r="H84" t="b">
-        <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>4</v>
-      </c>
-      <c r="J84" t="n">
-        <v>835282940.8185105</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3518888087.757512</v>
+        <v>2383216666.79614</v>
       </c>
       <c r="F85" t="n">
-        <v>0.150062805163213</v>
+        <v>0.1207402152123335</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05363899841699117</v>
+        <v>0.03973770434028791</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>122</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1759444161.32194</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1688527488.434287</v>
+        <v>2464620142.844006</v>
       </c>
       <c r="F86" t="n">
-        <v>0.125254329525206</v>
+        <v>0.1550801972385156</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01769535140939036</v>
+        <v>0.01903635247597307</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>44</v>
-      </c>
-      <c r="J86" t="n">
-        <v>844263728.5429918</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1318493343.391753</v>
+        <v>1437092277.922209</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1267952092843366</v>
+        <v>0.1548130105335523</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03123027181348153</v>
+        <v>0.03497132723461781</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>659246757.6575639</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2283049700.903089</v>
+        <v>2511276520.289308</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1614655970791548</v>
+        <v>0.1552167646456078</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02844066485012042</v>
+        <v>0.02609532151968099</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>128</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1141524810.049195</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2740324006.16254</v>
+        <v>2432651214.405273</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1153706046025304</v>
+        <v>0.1253743053986779</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02990463053733961</v>
+        <v>0.03945006025675619</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>110</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1370162060.220551</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1779042395.727672</v>
+        <v>1914353144.946317</v>
       </c>
       <c r="F90" t="n">
-        <v>0.0926200911910549</v>
+        <v>0.1234735968518314</v>
       </c>
       <c r="G90" t="n">
-        <v>0.0479658015897808</v>
+        <v>0.03605025762657918</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>889521227.6533815</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1787938239.402161</v>
+        <v>1881699047.69665</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1462553484877401</v>
+        <v>0.1956127190075648</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04210628442031865</v>
+        <v>0.05852389132567208</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>893969120.2623231</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2804177920.621405</v>
+        <v>2088538816.457994</v>
       </c>
       <c r="F92" t="n">
-        <v>0.06826731575970052</v>
+        <v>0.06650062373549172</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03394843362041161</v>
+        <v>0.04751368781582736</v>
       </c>
       <c r="H92" t="b">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>87</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1402088967.286599</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4146857255.634831</v>
+        <v>3996168752.014574</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1385385778878379</v>
+        <v>0.1365305220980283</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04870503222272678</v>
+        <v>0.05055558352611636</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>103</v>
-      </c>
-      <c r="J93" t="n">
-        <v>2073428618.954321</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2247502159.08947</v>
+        <v>1536096215.794992</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1094124992141697</v>
+        <v>0.1520154901668226</v>
       </c>
       <c r="G94" t="n">
-        <v>0.0283430506454152</v>
+        <v>0.03837564759988903</v>
       </c>
       <c r="H94" t="b">
-        <v>0</v>
-      </c>
-      <c r="I94" t="n">
         <v>1</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1123751110.125557</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2202339975.065062</v>
+        <v>2577375682.578923</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1142125798769045</v>
+        <v>0.08542510067543639</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03812478415608047</v>
+        <v>0.03948975526151503</v>
       </c>
       <c r="H95" t="b">
-        <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>77</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1101170045.309977</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2092552548.357001</v>
+        <v>1786827415.548029</v>
       </c>
       <c r="F96" t="n">
-        <v>0.08942749504330229</v>
+        <v>0.1129706774713209</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03949265606724112</v>
+        <v>0.02938814834689292</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>1046276251.276789</v>
       </c>
     </row>
     <row r="97">
@@ -3726,22 +3146,16 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3943714341.012205</v>
+        <v>4799141894.404286</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1519458197145158</v>
+        <v>0.1567373243036694</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01919203990787649</v>
+        <v>0.02361598426273216</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>103</v>
-      </c>
-      <c r="J97" t="n">
-        <v>1971857222.359054</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3400480380.04661</v>
+        <v>2532798937.325464</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1298293406428031</v>
+        <v>0.09108980375187772</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03183019961062167</v>
+        <v>0.02196519504505248</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>89</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1700240201.912251</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3270988840.209087</v>
+        <v>2280210702.761711</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1200942104286214</v>
+        <v>0.1340275288493455</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03556286234304624</v>
+        <v>0.02524331913303131</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>101</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1635494425.679034</v>
       </c>
     </row>
     <row r="100">
@@ -3828,22 +3230,16 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3066592767.618455</v>
+        <v>4307143663.467379</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1796283418010864</v>
+        <v>0.1526494136335196</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02004059917442728</v>
+        <v>0.02635602236258074</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>99</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1533296379.955309</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3305405702.713191</v>
+        <v>2407779284.58814</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1947382593631015</v>
+        <v>0.199983213984166</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04975261919558956</v>
+        <v>0.03706409433243301</v>
       </c>
       <c r="H101" t="b">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>129</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1652702980.783577</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_324.xlsx
+++ b/output/fit_clients/fit_round_324.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2361786092.114884</v>
+        <v>2476639106.795203</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1122588242216871</v>
+        <v>0.1132498477597898</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04320397936949284</v>
+        <v>0.04436904945525871</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -514,13 +514,13 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1753784352.388656</v>
+        <v>2305362755.985711</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1321129433568598</v>
+        <v>0.1395204424885667</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04425153229097008</v>
+        <v>0.04442849208477215</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4978110461.294032</v>
+        <v>3743011608.755089</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1152993882389962</v>
+        <v>0.1484059649359151</v>
       </c>
       <c r="G4" t="n">
-        <v>0.025165106048358</v>
+        <v>0.02751927610576063</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2890391782.968925</v>
+        <v>3754163922.028004</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08837172705583866</v>
+        <v>0.09742540516763849</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04537805843217169</v>
+        <v>0.05020457341415781</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -598,13 +598,13 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2144498274.855652</v>
+        <v>2723619066.158188</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1274188948533793</v>
+        <v>0.1410215303220788</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03554271325647052</v>
+        <v>0.044060847289788</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2920762248.160914</v>
+        <v>2668894904.94867</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08679099547435719</v>
+        <v>0.0962148960074808</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04881168561494452</v>
+        <v>0.03963576376736239</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3074142826.415226</v>
+        <v>2887152897.179284</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2023544416643891</v>
+        <v>0.2123038606263847</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02507620547623594</v>
+        <v>0.03011004224099316</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -682,13 +682,13 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1928596875.106078</v>
+        <v>2098770992.991312</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1198441104476716</v>
+        <v>0.1225583558115251</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02538210390969228</v>
+        <v>0.02424504631293609</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4739372472.012953</v>
+        <v>3631148651.9259</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1619765924496871</v>
+        <v>0.2065840100808616</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04218889067005013</v>
+        <v>0.0337869958560393</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4119769260.45845</v>
+        <v>3325447970.303567</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1173855689420748</v>
+        <v>0.1727843161591787</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03381013883009652</v>
+        <v>0.04151965728022489</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -766,13 +766,13 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2873536874.957894</v>
+        <v>3268974859.781598</v>
       </c>
       <c r="F12" t="n">
-        <v>0.163234445948704</v>
+        <v>0.1797948984767298</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03698161270475332</v>
+        <v>0.03507532028543709</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3220573159.879709</v>
+        <v>4825724499.447658</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0858091231722604</v>
+        <v>0.1015053387563944</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02848116199764121</v>
+        <v>0.01960953205670436</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -822,16 +822,16 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2731618927.601556</v>
+        <v>3869244148.53064</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1163282162112601</v>
+        <v>0.1608523420287886</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03514529594728986</v>
+        <v>0.0423338388370484</v>
       </c>
       <c r="H14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -844,22 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1415008530.232168</v>
+        <v>1739763307.077171</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09976673591712903</v>
+        <v>0.1079563890822658</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04630591410592628</v>
+        <v>0.0431068746503037</v>
       </c>
       <c r="H15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2612378141.191881</v>
+        <v>2064751799.846441</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09383727724046646</v>
+        <v>0.08411764325434599</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04736984296973333</v>
+        <v>0.03722749271115812</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3942291761.180293</v>
+        <v>4451883714.653374</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1131291489308072</v>
+        <v>0.1651791397582008</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04017582780594872</v>
+        <v>0.04124239569536783</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -934,16 +934,16 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3731472008.44781</v>
+        <v>3726408406.305686</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1241776156880262</v>
+        <v>0.1256965484427746</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02174534725636878</v>
+        <v>0.02700823499442138</v>
       </c>
       <c r="H18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -962,13 +962,13 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1262339506.671274</v>
+        <v>1218637933.406741</v>
       </c>
       <c r="F19" t="n">
-        <v>0.12566870124546</v>
+        <v>0.1387689222232794</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0172269381802099</v>
+        <v>0.02739775938500817</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1797743459.547876</v>
+        <v>2165517415.016974</v>
       </c>
       <c r="F20" t="n">
-        <v>0.149720285941064</v>
+        <v>0.1296286858944706</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02414730683628263</v>
+        <v>0.02339496131696452</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2164092723.214489</v>
+        <v>2337360892.21726</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07276630261373089</v>
+        <v>0.06547203478050612</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03762971335475306</v>
+        <v>0.03072255907215688</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3170635476.098865</v>
+        <v>3298051161.084724</v>
       </c>
       <c r="F22" t="n">
-        <v>0.09843637219651763</v>
+        <v>0.1197613419113103</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05618738681052559</v>
+        <v>0.04467675776285467</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1074,13 +1074,13 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1029422899.255949</v>
+        <v>998617134.7590435</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1818811423264143</v>
+        <v>0.1693123953840144</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03824057903643016</v>
+        <v>0.0483699998741319</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2559354694.852167</v>
+        <v>3095525180.793602</v>
       </c>
       <c r="F24" t="n">
-        <v>0.09218984670494297</v>
+        <v>0.1329311971691586</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03707796473674885</v>
+        <v>0.02468112252738828</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1379960248.134243</v>
+        <v>956652369.1553003</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1188252335963015</v>
+        <v>0.1179136959666511</v>
       </c>
       <c r="G25" t="n">
-        <v>0.030850491549199</v>
+        <v>0.02524812853323099</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>897557556.5465499</v>
+        <v>1319381025.912861</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1148379944968586</v>
+        <v>0.09012805117624832</v>
       </c>
       <c r="G26" t="n">
-        <v>0.032930267891153</v>
+        <v>0.02969527787001933</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3273306166.725439</v>
+        <v>4574794916.218665</v>
       </c>
       <c r="F27" t="n">
-        <v>0.09502789422781484</v>
+        <v>0.1521152171349519</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02705423131288184</v>
+        <v>0.02127736922656119</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,22 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3578658364.753891</v>
+        <v>3129970638.918407</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1047889521753365</v>
+        <v>0.1172237358856398</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03263230777039852</v>
+        <v>0.03146170485685688</v>
       </c>
       <c r="H28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1242,16 +1242,16 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>3996069197.460039</v>
+        <v>5004733949.248275</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1025628508516547</v>
+        <v>0.1146289384442862</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04229195225130655</v>
+        <v>0.03186491377390126</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,22 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2236153575.991189</v>
+        <v>1994196153.388442</v>
       </c>
       <c r="F30" t="n">
-        <v>0.09132919925662811</v>
+        <v>0.1383472626256984</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03038964414990189</v>
+        <v>0.03383568194826857</v>
       </c>
       <c r="H30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1370642739.005674</v>
+        <v>1069807477.366312</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1032666775870978</v>
+        <v>0.08215198310351714</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0398421053173627</v>
+        <v>0.05076686013050116</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1829156494.387789</v>
+        <v>1282191153.327858</v>
       </c>
       <c r="F32" t="n">
-        <v>0.09380896977489922</v>
+        <v>0.1184348330179473</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02838914611502505</v>
+        <v>0.03511227322604057</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2917890657.935948</v>
+        <v>2081090761.650893</v>
       </c>
       <c r="F33" t="n">
-        <v>0.208532960402752</v>
+        <v>0.1295029171201643</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05456688379179112</v>
+        <v>0.05038668140256401</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1382,13 +1382,13 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1002019264.293406</v>
+        <v>1294561589.270758</v>
       </c>
       <c r="F34" t="n">
-        <v>0.07514829538054327</v>
+        <v>0.07361640888461454</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02726332335040559</v>
+        <v>0.02284857894518849</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1050006042.675724</v>
+        <v>1168388931.011853</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08351735797472847</v>
+        <v>0.09782474894295427</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04074069734397913</v>
+        <v>0.03914079149293818</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2219223408.120481</v>
+        <v>2928942911.103381</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1600922857978856</v>
+        <v>0.1795221655468136</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02350570536688374</v>
+        <v>0.02034126457361624</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,22 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1918089529.457244</v>
+        <v>2269821902.962351</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07538969007891735</v>
+        <v>0.0766685488383623</v>
       </c>
       <c r="G37" t="n">
-        <v>0.04011463046532984</v>
+        <v>0.03317312643366171</v>
       </c>
       <c r="H37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2018484569.300703</v>
+        <v>2017092500.11966</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08532570163960967</v>
+        <v>0.07942160066959464</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03656261565950995</v>
+        <v>0.03722386959709822</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,22 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1702693746.657832</v>
+        <v>1431414607.126809</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1393038372746487</v>
+        <v>0.1677357861172044</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02296239484931331</v>
+        <v>0.0324908206886708</v>
       </c>
       <c r="H39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1796485346.088166</v>
+        <v>1645266602.494363</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1363365501241642</v>
+        <v>0.1170721775489439</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04711575711355344</v>
+        <v>0.04247874768549582</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2500134904.873184</v>
+        <v>2448207024.12335</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1331131035616017</v>
+        <v>0.1159547479009399</v>
       </c>
       <c r="G41" t="n">
-        <v>0.02957326603763235</v>
+        <v>0.03798014205914676</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2628805947.152844</v>
+        <v>3052891956.651993</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08691377283445846</v>
+        <v>0.08468736496591205</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03139687284367017</v>
+        <v>0.04303245584549868</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2616525000.140773</v>
+        <v>2021225068.011636</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1765554045219582</v>
+        <v>0.1705073244305804</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02113749154724255</v>
+        <v>0.01895549141907543</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2262872588.241626</v>
+        <v>2206058443.939203</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07179375781886514</v>
+        <v>0.0727895501879571</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03687247222439698</v>
+        <v>0.02412241801455231</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,22 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1797733458.007768</v>
+        <v>2074321888.341296</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1938938730380007</v>
+        <v>0.1417546054492271</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03723250334582189</v>
+        <v>0.05310406545533712</v>
       </c>
       <c r="H45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -1718,16 +1718,16 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4328877324.741282</v>
+        <v>5254648109.668021</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1616911864174005</v>
+        <v>0.1486261270313537</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04129452707046803</v>
+        <v>0.05022348044969652</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1746,16 +1746,16 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4589519501.925003</v>
+        <v>4995256456.013632</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1618452512792074</v>
+        <v>0.1933390870140429</v>
       </c>
       <c r="G47" t="n">
-        <v>0.03600188608173634</v>
+        <v>0.03624442903737573</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3709658701.370325</v>
+        <v>3870444744.227742</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09344029442385843</v>
+        <v>0.1026154860844862</v>
       </c>
       <c r="G48" t="n">
-        <v>0.0327696542474614</v>
+        <v>0.02483502840244866</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1501872423.286481</v>
+        <v>1858220321.534317</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1518666563203421</v>
+        <v>0.1341255275673917</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04354657184203501</v>
+        <v>0.0274967814982793</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3038487178.467953</v>
+        <v>3236007574.61573</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1272536395634437</v>
+        <v>0.1669814732113083</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03667140532229872</v>
+        <v>0.03315771023234476</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1476798166.51425</v>
+        <v>973463758.5155354</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1560266699963075</v>
+        <v>0.1189032022855035</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04272973545116725</v>
+        <v>0.03891226209015718</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,22 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3268125738.204003</v>
+        <v>3993755133.336303</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1024568959745892</v>
+        <v>0.09357896087563138</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04403764414821765</v>
+        <v>0.05560656577298153</v>
       </c>
       <c r="H52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -1914,13 +1914,13 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2967925186.174962</v>
+        <v>3248071399.792104</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1956185113701577</v>
+        <v>0.1315484589932852</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03237608826778815</v>
+        <v>0.03200601326050904</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3649284208.159554</v>
+        <v>4487135024.495676</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1537847397590709</v>
+        <v>0.1068137675744255</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03730661393098593</v>
+        <v>0.04493807070933437</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3198746075.208288</v>
+        <v>3914418168.893496</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1838885234858451</v>
+        <v>0.1678358701819016</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03110604311432217</v>
+        <v>0.02394876197788147</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,22 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1807672185.02328</v>
+        <v>1663678496.347883</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1214561983851762</v>
+        <v>0.1578112896967549</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05277612523335274</v>
+        <v>0.05231728984993859</v>
       </c>
       <c r="H56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -2026,13 +2026,13 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>2839676382.037815</v>
+        <v>4011753637.855924</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1244176863634516</v>
+        <v>0.1300453390010554</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02723143063989801</v>
+        <v>0.01954919006327852</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,22 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1747757320.885116</v>
+        <v>1614462611.159343</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1619434667507004</v>
+        <v>0.1995196830164014</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03751807120638286</v>
+        <v>0.02764137899397998</v>
       </c>
       <c r="H58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -2082,13 +2082,13 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5145548796.507874</v>
+        <v>4781295458.318844</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1209134924957821</v>
+        <v>0.07964463251679163</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03241713088681149</v>
+        <v>0.04459611812602791</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3530986098.198547</v>
+        <v>3035296852.739899</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1325788764565509</v>
+        <v>0.1534190165066239</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03138417961016769</v>
+        <v>0.02519869990435165</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3372296776.404724</v>
+        <v>2923141057.030471</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1766356487743764</v>
+        <v>0.1254267842542911</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02185640157497921</v>
+        <v>0.02636604144336707</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1988045040.292904</v>
+        <v>1514686671.465314</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1332719285769277</v>
+        <v>0.1708692701209677</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03827602501781945</v>
+        <v>0.03028801318471423</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3645539630.260778</v>
+        <v>3732190970.620822</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09376445131643314</v>
+        <v>0.08609446332990539</v>
       </c>
       <c r="G63" t="n">
-        <v>0.02994204206235039</v>
+        <v>0.02897688938495133</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3426847724.684987</v>
+        <v>5362013459.114508</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1779089096639898</v>
+        <v>0.1224025939699415</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03317328741451894</v>
+        <v>0.02614324669788244</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2250,16 +2250,16 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4423682019.9139</v>
+        <v>4014468913.435448</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1441738352170236</v>
+        <v>0.1641071537059077</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02969452943595348</v>
+        <v>0.03156074193068909</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4341425374.086484</v>
+        <v>4585747392.037815</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1436182306243898</v>
+        <v>0.1502496294761259</v>
       </c>
       <c r="G66" t="n">
-        <v>0.05048959445151335</v>
+        <v>0.03992848114969838</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2980560743.56742</v>
+        <v>3206440219.799191</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09734542993898206</v>
+        <v>0.08930659759069459</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04314064018439809</v>
+        <v>0.04630789802252054</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>6032847760.593787</v>
+        <v>5782909510.1783</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1500832090355463</v>
+        <v>0.1507910613630767</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04229990321489133</v>
+        <v>0.0356912911096962</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,22 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2102752820.891484</v>
+        <v>1938981481.571402</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1228028554497989</v>
+        <v>0.139309402425342</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05971324735255436</v>
+        <v>0.03758202547981594</v>
       </c>
       <c r="H69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3293058393.662834</v>
+        <v>3480170288.878018</v>
       </c>
       <c r="F70" t="n">
-        <v>0.1019929677195054</v>
+        <v>0.07822347328437335</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04504710502734549</v>
+        <v>0.04723059584350965</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,19 +2412,19 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3994686350.836183</v>
+        <v>4570192229.075176</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1119507738207329</v>
+        <v>0.1317367164881019</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02195804991496499</v>
+        <v>0.03183219003780263</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1615965946.173547</v>
+        <v>1695537934.078174</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07260022592094226</v>
+        <v>0.1083027751560899</v>
       </c>
       <c r="G72" t="n">
-        <v>0.0386596022154642</v>
+        <v>0.0504952318563725</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,22 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3441135525.903066</v>
+        <v>3194385677.668932</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08167661951104524</v>
+        <v>0.08495017957800645</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04479866826114389</v>
+        <v>0.0351359664164298</v>
       </c>
       <c r="H73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2502,13 +2502,13 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3437798997.495621</v>
+        <v>3560813345.605163</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1596769292151329</v>
+        <v>0.120833453306153</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03384436182657177</v>
+        <v>0.0259809142057883</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2284837092.961646</v>
+        <v>2233441380.466835</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1606019340355672</v>
+        <v>0.1542709298061632</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02984187475181733</v>
+        <v>0.03802606394303403</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4699531744.987065</v>
+        <v>4565009064.215599</v>
       </c>
       <c r="F76" t="n">
-        <v>0.119722775175769</v>
+        <v>0.09549768891550636</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03268630539027659</v>
+        <v>0.02680230661459083</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,19 +2580,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2134169526.498137</v>
+        <v>1736631233.907646</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1142821632951784</v>
+        <v>0.1739777408748727</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02596169153093664</v>
+        <v>0.01976421028389786</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4115194931.98693</v>
+        <v>3001494393.354109</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1004267858394743</v>
+        <v>0.09089368443548695</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03634514768641132</v>
+        <v>0.05514027136874303</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1553634293.344784</v>
+        <v>1434447948.014025</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1554065256192755</v>
+        <v>0.1142883995704314</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03665329325681729</v>
+        <v>0.04074579878649275</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,19 +2664,19 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5626268995.070159</v>
+        <v>5386445409.905765</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07723874840872486</v>
+        <v>0.09008782363420383</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03247153670055211</v>
+        <v>0.0240988002375497</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
@@ -2698,16 +2698,16 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3315584772.081827</v>
+        <v>4308179632.54991</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1121075516389051</v>
+        <v>0.1182528130108678</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02301311004712538</v>
+        <v>0.02213613501742214</v>
       </c>
       <c r="H81" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -2720,22 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4956525920.725498</v>
+        <v>4806575814.195168</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1431229872055716</v>
+        <v>0.1676403415320459</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02699318386779534</v>
+        <v>0.02452848092840022</v>
       </c>
       <c r="H82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -2754,13 +2754,13 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2186113786.899124</v>
+        <v>2164281083.713876</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1250219112187546</v>
+        <v>0.1134118911880285</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03996739106322218</v>
+        <v>0.02975189435841678</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,22 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2570744093.100893</v>
+        <v>1937602645.301036</v>
       </c>
       <c r="F84" t="n">
-        <v>0.09833632776107432</v>
+        <v>0.09043810565914925</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04858804378570046</v>
+        <v>0.05013375414282242</v>
       </c>
       <c r="H84" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2383216666.79614</v>
+        <v>3605175664.513174</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1207402152123335</v>
+        <v>0.1187290592516132</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03973770434028791</v>
+        <v>0.03963425080800027</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2464620142.844006</v>
+        <v>2802469352.129846</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1550801972385156</v>
+        <v>0.160797673931049</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01903635247597307</v>
+        <v>0.01666411190774145</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2866,13 +2866,13 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1437092277.922209</v>
+        <v>919652951.8123969</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1548130105335523</v>
+        <v>0.116329347716442</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03497132723461781</v>
+        <v>0.04113303777854461</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2511276520.289308</v>
+        <v>3595705026.655748</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1552167646456078</v>
+        <v>0.1577888351617853</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02609532151968099</v>
+        <v>0.02578447700570657</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2432651214.405273</v>
+        <v>2258055093.662365</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1253743053986779</v>
+        <v>0.1515818566338097</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03945006025675619</v>
+        <v>0.03907631632373734</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1914353144.946317</v>
+        <v>2112562484.95891</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1234735968518314</v>
+        <v>0.09246331788786999</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03605025762657918</v>
+        <v>0.05179880442407808</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1881699047.69665</v>
+        <v>1571309928.934853</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1956127190075648</v>
+        <v>0.1182868957945471</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05852389132567208</v>
+        <v>0.04206263741761454</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3006,13 +3006,13 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2088538816.457994</v>
+        <v>1917482395.710755</v>
       </c>
       <c r="F92" t="n">
-        <v>0.06650062373549172</v>
+        <v>0.07315393379628965</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04751368781582736</v>
+        <v>0.03019368607254082</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3034,16 +3034,16 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3996168752.014574</v>
+        <v>3532857949.450027</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1365305220980283</v>
+        <v>0.1343089484842899</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05055558352611636</v>
+        <v>0.05419585318462717</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,22 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1536096215.794992</v>
+        <v>2500409514.927867</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1520154901668226</v>
+        <v>0.1184555899461218</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03837564759988903</v>
+        <v>0.02880992932267885</v>
       </c>
       <c r="H94" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
@@ -3090,16 +3090,16 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2577375682.578923</v>
+        <v>3143460059.860443</v>
       </c>
       <c r="F95" t="n">
-        <v>0.08542510067543639</v>
+        <v>0.08983937766552269</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03948975526151503</v>
+        <v>0.04686915832339015</v>
       </c>
       <c r="H95" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -3118,13 +3118,13 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1786827415.548029</v>
+        <v>2213880848.425223</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1129706774713209</v>
+        <v>0.1238891991468744</v>
       </c>
       <c r="G96" t="n">
-        <v>0.02938814834689292</v>
+        <v>0.03098562252175051</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3146,16 +3146,16 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4799141894.404286</v>
+        <v>4765941501.389732</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1567373243036694</v>
+        <v>0.1136733330458028</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02361598426273216</v>
+        <v>0.02192109017184708</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2532798937.325464</v>
+        <v>2709859184.921299</v>
       </c>
       <c r="F98" t="n">
-        <v>0.09108980375187772</v>
+        <v>0.1104304030000545</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02196519504505248</v>
+        <v>0.02988062364774664</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3202,13 +3202,13 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2280210702.761711</v>
+        <v>2812628753.099008</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1340275288493455</v>
+        <v>0.1279101367954743</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02524331913303131</v>
+        <v>0.02259267593983822</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4307143663.467379</v>
+        <v>4276837183.244119</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1526494136335196</v>
+        <v>0.1774110268463631</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02635602236258074</v>
+        <v>0.01701338372047401</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2407779284.58814</v>
+        <v>2430154451.417789</v>
       </c>
       <c r="F101" t="n">
-        <v>0.199983213984166</v>
+        <v>0.1917054177139983</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03706409433243301</v>
+        <v>0.03752523803611997</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_324.xlsx
+++ b/output/fit_clients/fit_round_324.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2476639106.795203</v>
+        <v>1657106014.110157</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1132498477597898</v>
+        <v>0.08085330055610636</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04436904945525871</v>
+        <v>0.03507562429399023</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2305362755.985711</v>
+        <v>2344487674.668033</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1395204424885667</v>
+        <v>0.1252029489686686</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04442849208477215</v>
+        <v>0.03467948384624654</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -542,16 +571,25 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3743011608.755089</v>
+        <v>4894851688.888537</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1484059649359151</v>
+        <v>0.1065263257672649</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02751927610576063</v>
+        <v>0.03156883065630647</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>169</v>
+      </c>
+      <c r="J4" t="n">
+        <v>323</v>
+      </c>
+      <c r="K4" t="n">
+        <v>73.41373531182094</v>
       </c>
     </row>
     <row r="5">
@@ -564,23 +602,30 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3754163922.028004</v>
+        <v>3411789088.799689</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09742540516763849</v>
+        <v>0.08449784035793749</v>
       </c>
       <c r="G5" t="n">
-        <v>0.05020457341415781</v>
+        <v>0.0442938788796873</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
       </c>
+      <c r="I5" t="n">
+        <v>130</v>
+      </c>
+      <c r="J5" t="n">
+        <v>322</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -592,23 +637,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2723619066.158188</v>
+        <v>2681682257.960712</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1410215303220788</v>
+        <v>0.1341852230979202</v>
       </c>
       <c r="G6" t="n">
-        <v>0.044060847289788</v>
+        <v>0.04335617281725385</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +672,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2668894904.94867</v>
+        <v>2556911965.700768</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0962148960074808</v>
+        <v>0.06246164132323098</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03963576376736239</v>
+        <v>0.04873316337741032</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,22 +707,31 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2887152897.179284</v>
+        <v>2810512383.558263</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2123038606263847</v>
+        <v>0.1489157881896748</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03011004224099316</v>
+        <v>0.02047387936646303</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>87</v>
+      </c>
+      <c r="J8" t="n">
+        <v>323</v>
+      </c>
+      <c r="K8" t="n">
+        <v>38.55806930503469</v>
       </c>
     </row>
     <row r="9">
@@ -676,23 +744,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2098770992.991312</v>
+        <v>2086335155.209077</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1225583558115251</v>
+        <v>0.1647938950170127</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02424504631293609</v>
+        <v>0.02501678076279604</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +779,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3631148651.9259</v>
+        <v>5751328489.791136</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2065840100808616</v>
+        <v>0.1312942967295199</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0337869958560393</v>
+        <v>0.05163284298409505</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>281</v>
+      </c>
+      <c r="J10" t="n">
+        <v>324</v>
+      </c>
+      <c r="K10" t="n">
+        <v>74.30403789285369</v>
       </c>
     </row>
     <row r="11">
@@ -732,23 +816,30 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3325447970.303567</v>
+        <v>3306161376.87255</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1727843161591787</v>
+        <v>0.1330964803720878</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04151965728022489</v>
+        <v>0.03437381093420717</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
       </c>
+      <c r="I11" t="n">
+        <v>132</v>
+      </c>
+      <c r="J11" t="n">
+        <v>322</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -760,23 +851,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3268974859.781598</v>
+        <v>2876908055.777704</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1797948984767298</v>
+        <v>0.1709857139301139</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03507532028543709</v>
+        <v>0.04542060679907215</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>3</v>
+      </c>
+      <c r="J12" t="n">
+        <v>308</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,22 +886,31 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4825724499.447658</v>
+        <v>4926526539.925395</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1015053387563944</v>
+        <v>0.06787986885731899</v>
       </c>
       <c r="G13" t="n">
-        <v>0.01960953205670436</v>
+        <v>0.03035777455998586</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>168</v>
+      </c>
+      <c r="J13" t="n">
+        <v>324</v>
+      </c>
+      <c r="K13" t="n">
+        <v>73.88064814286061</v>
       </c>
     </row>
     <row r="14">
@@ -822,17 +929,24 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3869244148.53064</v>
+        <v>2905655625.844497</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1608523420287886</v>
+        <v>0.1718829551925346</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0423338388370484</v>
+        <v>0.04046450121609102</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>66</v>
+      </c>
+      <c r="J14" t="n">
+        <v>322</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -850,17 +964,24 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1739763307.077171</v>
+        <v>1821731710.746352</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1079563890822658</v>
+        <v>0.06790832001325345</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0431068746503037</v>
+        <v>0.04102879161482719</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -878,17 +999,24 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2064751799.846441</v>
+        <v>2321345241.451713</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08411764325434599</v>
+        <v>0.09923112448727449</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03722749271115812</v>
+        <v>0.03887268404327245</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,23 +1028,30 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4451883714.653374</v>
+        <v>4419886515.480302</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1651791397582008</v>
+        <v>0.1295385587795463</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04124239569536783</v>
+        <v>0.03492184663841706</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>152</v>
+      </c>
+      <c r="J17" t="n">
+        <v>324</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -928,23 +1063,30 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3726408406.305686</v>
+        <v>3794748763.314564</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1256965484427746</v>
+        <v>0.1212354746984777</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02700823499442138</v>
+        <v>0.03202026950555551</v>
       </c>
       <c r="H18" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>80</v>
+      </c>
+      <c r="J18" t="n">
+        <v>324</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1098,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1218637933.406741</v>
+        <v>943081959.1400534</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1387689222232794</v>
+        <v>0.1210572879591331</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02739775938500817</v>
+        <v>0.01829996181091364</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1133,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2165517415.016974</v>
+        <v>2189480993.941316</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1296286858944706</v>
+        <v>0.1526457578264854</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02339496131696452</v>
+        <v>0.01964411169904122</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1168,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2337360892.21726</v>
+        <v>2332679708.601906</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06547203478050612</v>
+        <v>0.07347514491091243</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03072255907215688</v>
+        <v>0.03917512463365318</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,22 +1203,31 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3298051161.084724</v>
+        <v>2865936811.083137</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1197613419113103</v>
+        <v>0.1091075138768625</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04467675776285467</v>
+        <v>0.0384575628347834</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>88</v>
+      </c>
+      <c r="J22" t="n">
+        <v>323</v>
+      </c>
+      <c r="K22" t="n">
+        <v>36.9960880032974</v>
       </c>
     </row>
     <row r="23">
@@ -1068,23 +1240,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>998617134.7590435</v>
+        <v>1204190128.062559</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1693123953840144</v>
+        <v>0.1233591855949153</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0483699998741319</v>
+        <v>0.05204696376907203</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,23 +1275,30 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3095525180.793602</v>
+        <v>2751837226.150071</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1329311971691586</v>
+        <v>0.1283118856588353</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02468112252738828</v>
+        <v>0.02653545511676186</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>96</v>
+      </c>
+      <c r="J24" t="n">
+        <v>322</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1124,23 +1310,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>956652369.1553003</v>
+        <v>1035233862.355463</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1179136959666511</v>
+        <v>0.0868454472410629</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02524812853323099</v>
+        <v>0.02963294391055315</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1345,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1319381025.912861</v>
+        <v>950180705.2995373</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09012805117624832</v>
+        <v>0.1129091506225968</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02969527787001933</v>
+        <v>0.02399497643360254</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1186,17 +1386,24 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4574794916.218665</v>
+        <v>3159547022.545826</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1521152171349519</v>
+        <v>0.1166271707501749</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02127736922656119</v>
+        <v>0.02333577183209495</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>134</v>
+      </c>
+      <c r="J27" t="n">
+        <v>322</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1214,17 +1421,24 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3129970638.918407</v>
+        <v>2524312061.524936</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1172237358856398</v>
+        <v>0.1057544523758273</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03146170485685688</v>
+        <v>0.04465882671942026</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>70</v>
+      </c>
+      <c r="J28" t="n">
+        <v>321</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1236,22 +1450,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5004733949.248275</v>
+        <v>4181142374.206702</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1146289384442862</v>
+        <v>0.09120631411315318</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03186491377390126</v>
+        <v>0.02960319729089451</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>298</v>
+      </c>
+      <c r="J29" t="n">
+        <v>323</v>
+      </c>
+      <c r="K29" t="n">
+        <v>72.88107619898135</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1487,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1994196153.388442</v>
+        <v>2333676621.779906</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1383472626256984</v>
+        <v>0.1293460584427141</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03383568194826857</v>
+        <v>0.03374984952922335</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1522,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1069807477.366312</v>
+        <v>1040874934.742236</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08215198310351714</v>
+        <v>0.1095264391939752</v>
       </c>
       <c r="G31" t="n">
-        <v>0.05076686013050116</v>
+        <v>0.04508492906512046</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1557,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1282191153.327858</v>
+        <v>1619156995.315106</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1184348330179473</v>
+        <v>0.1129196750173016</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03511227322604057</v>
+        <v>0.02722834943012512</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1354,17 +1598,24 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2081090761.650893</v>
+        <v>2962643225.161574</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1295029171201643</v>
+        <v>0.1936931629800529</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05038668140256401</v>
+        <v>0.03831706185512875</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1627,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1294561589.270758</v>
+        <v>1304351864.450017</v>
       </c>
       <c r="F34" t="n">
-        <v>0.07361640888461454</v>
+        <v>0.09601577702164406</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02284857894518849</v>
+        <v>0.01731820095907976</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1662,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1168388931.011853</v>
+        <v>1259131603.664023</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09782474894295427</v>
+        <v>0.1155313186545139</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03914079149293818</v>
+        <v>0.03757159969957392</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1438,17 +1703,24 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2928942911.103381</v>
+        <v>2094797825.187976</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1795221655468136</v>
+        <v>0.1125297419473206</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02034126457361624</v>
+        <v>0.02031681905156493</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1732,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2269821902.962351</v>
+        <v>2145364307.15783</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0766685488383623</v>
+        <v>0.1015346361229671</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03317312643366171</v>
+        <v>0.03439585749839198</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1494,17 +1773,24 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2017092500.11966</v>
+        <v>1398541442.134338</v>
       </c>
       <c r="F38" t="n">
-        <v>0.07942160066959464</v>
+        <v>0.08662645597402725</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03722386959709822</v>
+        <v>0.03814124122496471</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1802,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1431414607.126809</v>
+        <v>2081172072.73756</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1677357861172044</v>
+        <v>0.1604765531210457</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0324908206886708</v>
+        <v>0.02825389564605281</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1837,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1645266602.494363</v>
+        <v>1165794854.669448</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1170721775489439</v>
+        <v>0.1068217450365362</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04247874768549582</v>
+        <v>0.05124938768014215</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1872,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2448207024.12335</v>
+        <v>2500326278.713137</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1159547479009399</v>
+        <v>0.1144269333346777</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03798014205914676</v>
+        <v>0.04511080205036293</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,22 +1907,31 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3052891956.651993</v>
+        <v>4059363062.923707</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08468736496591205</v>
+        <v>0.08952003970047701</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04303245584549868</v>
+        <v>0.04329153659990721</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>135</v>
+      </c>
+      <c r="J42" t="n">
+        <v>324</v>
+      </c>
+      <c r="K42" t="n">
+        <v>81.46600056843943</v>
       </c>
     </row>
     <row r="43">
@@ -1628,23 +1944,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2021225068.011636</v>
+        <v>2810439758.544391</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1705073244305804</v>
+        <v>0.2025639361244669</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01895549141907543</v>
+        <v>0.01976931091863124</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1979,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2206058443.939203</v>
+        <v>2010016049.37412</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0727895501879571</v>
+        <v>0.08296271743444264</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02412241801455231</v>
+        <v>0.03537563579184641</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2014,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2074321888.341296</v>
+        <v>2305220291.080831</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1417546054492271</v>
+        <v>0.1312506121637164</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05310406545533712</v>
+        <v>0.03988497873134272</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,23 +2049,30 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5254648109.668021</v>
+        <v>5437304364.53147</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1486261270313537</v>
+        <v>0.1639267970302987</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05022348044969652</v>
+        <v>0.0417391581164258</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
       </c>
+      <c r="I46" t="n">
+        <v>193</v>
+      </c>
+      <c r="J46" t="n">
+        <v>324</v>
+      </c>
+      <c r="K46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1746,17 +2090,24 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4995256456.013632</v>
+        <v>3580439803.592694</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1933390870140429</v>
+        <v>0.1632161036187331</v>
       </c>
       <c r="G47" t="n">
-        <v>0.03624442903737573</v>
+        <v>0.04839838190572039</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
       </c>
+      <c r="I47" t="n">
+        <v>144</v>
+      </c>
+      <c r="J47" t="n">
+        <v>324</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1768,23 +2119,30 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3870444744.227742</v>
+        <v>3418591108.900579</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1026154860844862</v>
+        <v>0.09464899189415905</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02483502840244866</v>
+        <v>0.0326886506160111</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>161</v>
+      </c>
+      <c r="J48" t="n">
+        <v>324</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1796,23 +2154,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1858220321.534317</v>
+        <v>1918850693.227074</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1341255275673917</v>
+        <v>0.1438528203249796</v>
       </c>
       <c r="G49" t="n">
-        <v>0.0274967814982793</v>
+        <v>0.02929652339891062</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1830,17 +2195,24 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3236007574.61573</v>
+        <v>3937105642.395431</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1669814732113083</v>
+        <v>0.1303884355884921</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03315771023234476</v>
+        <v>0.03420380073562268</v>
       </c>
       <c r="H50" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>105</v>
+      </c>
+      <c r="J50" t="n">
+        <v>324</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1852,23 +2224,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>973463758.5155354</v>
+        <v>1316821953.576338</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1189032022855035</v>
+        <v>0.1753823263352354</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03891226209015718</v>
+        <v>0.04016055164099196</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,22 +2259,31 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3993755133.336303</v>
+        <v>4947996476.487878</v>
       </c>
       <c r="F52" t="n">
-        <v>0.09357896087563138</v>
+        <v>0.09201712920444682</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05560656577298153</v>
+        <v>0.03988715817125224</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>196</v>
+      </c>
+      <c r="J52" t="n">
+        <v>323</v>
+      </c>
+      <c r="K52" t="n">
+        <v>71.7340998808657</v>
       </c>
     </row>
     <row r="53">
@@ -1908,23 +2296,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3248071399.792104</v>
+        <v>3084981555.227512</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1315484589932852</v>
+        <v>0.1965735332570299</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03200601326050904</v>
+        <v>0.02278983937101432</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>47</v>
+      </c>
+      <c r="J53" t="n">
+        <v>321</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,23 +2331,30 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4487135024.495676</v>
+        <v>4253155446.507175</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1068137675744255</v>
+        <v>0.1194124362340534</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04493807070933437</v>
+        <v>0.03310066755468481</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
       </c>
+      <c r="I54" t="n">
+        <v>169</v>
+      </c>
+      <c r="J54" t="n">
+        <v>324</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1964,23 +2366,30 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3914418168.893496</v>
+        <v>3534383933.936084</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1678358701819016</v>
+        <v>0.1674679887825266</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02394876197788147</v>
+        <v>0.02334803320500353</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
       </c>
+      <c r="I55" t="n">
+        <v>150</v>
+      </c>
+      <c r="J55" t="n">
+        <v>324</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1998,17 +2407,24 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1663678496.347883</v>
+        <v>1702207606.003605</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1578112896967549</v>
+        <v>0.1413782471291727</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05231728984993859</v>
+        <v>0.04987913709234856</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,22 +2436,31 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4011753637.855924</v>
+        <v>3777201003.71562</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1300453390010554</v>
+        <v>0.1498799739432706</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01954919006327852</v>
+        <v>0.01850549339775175</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>133</v>
+      </c>
+      <c r="J57" t="n">
+        <v>323</v>
+      </c>
+      <c r="K57" t="n">
+        <v>63.75609182962979</v>
       </c>
     </row>
     <row r="58">
@@ -2048,23 +2473,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1614462611.159343</v>
+        <v>1337132567.811761</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1995196830164014</v>
+        <v>0.1553370025755326</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02764137899397998</v>
+        <v>0.03547671599298423</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,23 +2508,30 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4781295458.318844</v>
+        <v>5128920605.604513</v>
       </c>
       <c r="F59" t="n">
-        <v>0.07964463251679163</v>
+        <v>0.1267324787694352</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04459611812602791</v>
+        <v>0.04111443132070602</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>156</v>
+      </c>
+      <c r="J59" t="n">
+        <v>324</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2104,23 +2543,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3035296852.739899</v>
+        <v>3602746157.422013</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1534190165066239</v>
+        <v>0.1959680976202313</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02519869990435165</v>
+        <v>0.02743548336868043</v>
       </c>
       <c r="H60" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>55</v>
+      </c>
+      <c r="J60" t="n">
+        <v>324</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,23 +2578,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2923141057.030471</v>
+        <v>2588668035.354646</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1254267842542911</v>
+        <v>0.1382213625469914</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02636604144336707</v>
+        <v>0.02240677816683851</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>11</v>
+      </c>
+      <c r="J61" t="n">
+        <v>314</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2613,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1514686671.465314</v>
+        <v>1396455474.676493</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1708692701209677</v>
+        <v>0.1507886402130371</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03028801318471423</v>
+        <v>0.03202855233521124</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2194,17 +2654,24 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3732190970.620822</v>
+        <v>5032263348.775907</v>
       </c>
       <c r="F63" t="n">
-        <v>0.08609446332990539</v>
+        <v>0.09620290976366559</v>
       </c>
       <c r="G63" t="n">
-        <v>0.02897688938495133</v>
+        <v>0.03238931449234247</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
       </c>
+      <c r="I63" t="n">
+        <v>157</v>
+      </c>
+      <c r="J63" t="n">
+        <v>324</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2216,23 +2683,30 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5362013459.114508</v>
+        <v>3387462030.074155</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1224025939699415</v>
+        <v>0.1514270723331284</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02614324669788244</v>
+        <v>0.02629405197846807</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>160</v>
+      </c>
+      <c r="J64" t="n">
+        <v>322</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2244,23 +2718,30 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4014468913.435448</v>
+        <v>5615416441.1213</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1641071537059077</v>
+        <v>0.1626815397293636</v>
       </c>
       <c r="G65" t="n">
-        <v>0.03156074193068909</v>
+        <v>0.02565142026672094</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
       </c>
+      <c r="I65" t="n">
+        <v>254</v>
+      </c>
+      <c r="J65" t="n">
+        <v>324</v>
+      </c>
+      <c r="K65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2272,22 +2753,31 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4585747392.037815</v>
+        <v>4163650176.168065</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1502496294761259</v>
+        <v>0.1521745465955079</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03992848114969838</v>
+        <v>0.03331873499954923</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>160</v>
+      </c>
+      <c r="J66" t="n">
+        <v>323</v>
+      </c>
+      <c r="K66" t="n">
+        <v>70.32583152621608</v>
       </c>
     </row>
     <row r="67">
@@ -2300,23 +2790,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3206440219.799191</v>
+        <v>2334086171.063775</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08930659759069459</v>
+        <v>0.089204587879561</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04630789802252054</v>
+        <v>0.03271066477503308</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>10</v>
+      </c>
+      <c r="J67" t="n">
+        <v>312</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2334,16 +2831,25 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5782909510.1783</v>
+        <v>4274119944.03265</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1507910613630767</v>
+        <v>0.1539111303099173</v>
       </c>
       <c r="G68" t="n">
-        <v>0.0356912911096962</v>
+        <v>0.04264619673216649</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
+      </c>
+      <c r="I68" t="n">
+        <v>175</v>
+      </c>
+      <c r="J68" t="n">
+        <v>324</v>
+      </c>
+      <c r="K68" t="n">
+        <v>73.74739056881555</v>
       </c>
     </row>
     <row r="69">
@@ -2356,23 +2862,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1938981481.571402</v>
+        <v>1531946935.983362</v>
       </c>
       <c r="F69" t="n">
-        <v>0.139309402425342</v>
+        <v>0.1201836336219592</v>
       </c>
       <c r="G69" t="n">
-        <v>0.03758202547981594</v>
+        <v>0.05496300973291869</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2390,16 +2903,25 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3480170288.878018</v>
+        <v>3301106037.454655</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07822347328437335</v>
+        <v>0.09001170676315889</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04723059584350965</v>
+        <v>0.04817211535235225</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
+      </c>
+      <c r="I70" t="n">
+        <v>49</v>
+      </c>
+      <c r="J70" t="n">
+        <v>323</v>
+      </c>
+      <c r="K70" t="n">
+        <v>46.9604848778129</v>
       </c>
     </row>
     <row r="71">
@@ -2412,22 +2934,31 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4570192229.075176</v>
+        <v>4110454344.693429</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1317367164881019</v>
+        <v>0.1360772551451111</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03183219003780263</v>
+        <v>0.03017696644960487</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>239</v>
+      </c>
+      <c r="J71" t="n">
+        <v>323</v>
+      </c>
+      <c r="K71" t="n">
+        <v>72.32279915243402</v>
       </c>
     </row>
     <row r="72">
@@ -2446,17 +2977,24 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1695537934.078174</v>
+        <v>1638681127.691612</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1083027751560899</v>
+        <v>0.09611725365194743</v>
       </c>
       <c r="G72" t="n">
-        <v>0.0504952318563725</v>
+        <v>0.04351649444349939</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3006,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3194385677.668932</v>
+        <v>2665250120.992883</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08495017957800645</v>
+        <v>0.07214036393449001</v>
       </c>
       <c r="G73" t="n">
-        <v>0.0351359664164298</v>
+        <v>0.04600898640333585</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>24</v>
+      </c>
+      <c r="J73" t="n">
+        <v>311</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,23 +3041,30 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3560813345.605163</v>
+        <v>3743001348.046751</v>
       </c>
       <c r="F74" t="n">
-        <v>0.120833453306153</v>
+        <v>0.1494459693126517</v>
       </c>
       <c r="G74" t="n">
-        <v>0.0259809142057883</v>
+        <v>0.03341662478319449</v>
       </c>
       <c r="H74" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>83</v>
+      </c>
+      <c r="J74" t="n">
+        <v>324</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2524,23 +3076,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2233441380.466835</v>
+        <v>1768612028.163981</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1542709298061632</v>
+        <v>0.1567949453819872</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03802606394303403</v>
+        <v>0.02772630745110265</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,22 +3111,31 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4565009064.215599</v>
+        <v>5363974613.780251</v>
       </c>
       <c r="F76" t="n">
-        <v>0.09549768891550636</v>
+        <v>0.07886049049061199</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02680230661459083</v>
+        <v>0.02486519924571485</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>153</v>
+      </c>
+      <c r="J76" t="n">
+        <v>323</v>
+      </c>
+      <c r="K76" t="n">
+        <v>68.38269829516889</v>
       </c>
     </row>
     <row r="77">
@@ -2580,23 +3148,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1736631233.907646</v>
+        <v>2287549386.632252</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1739777408748727</v>
+        <v>0.1782214535079944</v>
       </c>
       <c r="G77" t="n">
-        <v>0.01976421028389786</v>
+        <v>0.02879648867882134</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,23 +3183,30 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3001494393.354109</v>
+        <v>4076776573.629614</v>
       </c>
       <c r="F78" t="n">
-        <v>0.09089368443548695</v>
+        <v>0.1199195284863884</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05514027136874303</v>
+        <v>0.04226759997947948</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
       </c>
+      <c r="I78" t="n">
+        <v>159</v>
+      </c>
+      <c r="J78" t="n">
+        <v>324</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2636,23 +3218,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1434447948.014025</v>
+        <v>1708759093.288494</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1142883995704314</v>
+        <v>0.1186202924973494</v>
       </c>
       <c r="G79" t="n">
-        <v>0.04074579878649275</v>
+        <v>0.03553705209396055</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,23 +3253,30 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5386445409.905765</v>
+        <v>3450940014.008451</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09008782363420383</v>
+        <v>0.09648370748008672</v>
       </c>
       <c r="G80" t="n">
-        <v>0.0240988002375497</v>
+        <v>0.03085612420867789</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
       </c>
+      <c r="I80" t="n">
+        <v>158</v>
+      </c>
+      <c r="J80" t="n">
+        <v>324</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2692,22 +3288,31 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4308179632.54991</v>
+        <v>4584746081.184332</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1182528130108678</v>
+        <v>0.09044509885266977</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02213613501742214</v>
+        <v>0.02984628259420218</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>149</v>
+      </c>
+      <c r="J81" t="n">
+        <v>323</v>
+      </c>
+      <c r="K81" t="n">
+        <v>66.59451816238344</v>
       </c>
     </row>
     <row r="82">
@@ -2720,22 +3325,31 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4806575814.195168</v>
+        <v>4785103016.810756</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1676403415320459</v>
+        <v>0.2081175774462552</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02452848092840022</v>
+        <v>0.01898279362994009</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>234</v>
+      </c>
+      <c r="J82" t="n">
+        <v>323</v>
+      </c>
+      <c r="K82" t="n">
+        <v>71.75385972376081</v>
       </c>
     </row>
     <row r="83">
@@ -2748,23 +3362,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2164281083.713876</v>
+        <v>2255017662.752261</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1134118911880285</v>
+        <v>0.134561761747594</v>
       </c>
       <c r="G83" t="n">
-        <v>0.02975189435841678</v>
+        <v>0.03959166323207213</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3397,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1937602645.301036</v>
+        <v>2420920964.609426</v>
       </c>
       <c r="F84" t="n">
-        <v>0.09043810565914925</v>
+        <v>0.07776166851087141</v>
       </c>
       <c r="G84" t="n">
-        <v>0.05013375414282242</v>
+        <v>0.03861110977963753</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3432,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3605175664.513174</v>
+        <v>3273603768.049478</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1187290592516132</v>
+        <v>0.1118388284751251</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03963425080800027</v>
+        <v>0.0567489724677063</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>43</v>
+      </c>
+      <c r="J85" t="n">
+        <v>322</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3467,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2802469352.129846</v>
+        <v>2656411944.279263</v>
       </c>
       <c r="F86" t="n">
-        <v>0.160797673931049</v>
+        <v>0.1124523954124875</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01666411190774145</v>
+        <v>0.0223653190569032</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3502,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>919652951.8123969</v>
+        <v>1132403538.933679</v>
       </c>
       <c r="F87" t="n">
-        <v>0.116329347716442</v>
+        <v>0.1690151077321718</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04113303777854461</v>
+        <v>0.04365611410064872</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3537,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3595705026.655748</v>
+        <v>2441781615.376675</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1577888351617853</v>
+        <v>0.170361774775956</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02578447700570657</v>
+        <v>0.03846137511258253</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>45</v>
+      </c>
+      <c r="J88" t="n">
+        <v>321</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,23 +3572,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2258055093.662365</v>
+        <v>2243566062.909519</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1515818566338097</v>
+        <v>0.1439343786412309</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03907631632373734</v>
+        <v>0.03878766644310534</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>24</v>
+      </c>
+      <c r="J89" t="n">
+        <v>314</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3607,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2112562484.95891</v>
+        <v>1306190795.118646</v>
       </c>
       <c r="F90" t="n">
-        <v>0.09246331788786999</v>
+        <v>0.1288697002015586</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05179880442407808</v>
+        <v>0.04239425359597208</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3642,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1571309928.934853</v>
+        <v>1716501219.457065</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1182868957945471</v>
+        <v>0.135770617399914</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04206263741761454</v>
+        <v>0.04299724461214986</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3677,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>1917482395.710755</v>
+        <v>2832087351.652581</v>
       </c>
       <c r="F92" t="n">
-        <v>0.07315393379628965</v>
+        <v>0.07013100386465322</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03019368607254082</v>
+        <v>0.03743363322011253</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3034,16 +3718,25 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3532857949.450027</v>
+        <v>4637701608.144393</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1343089484842899</v>
+        <v>0.1117422347285157</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05419585318462717</v>
+        <v>0.04001298682406111</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
+      </c>
+      <c r="I93" t="n">
+        <v>147</v>
+      </c>
+      <c r="J93" t="n">
+        <v>324</v>
+      </c>
+      <c r="K93" t="n">
+        <v>74.53664142277511</v>
       </c>
     </row>
     <row r="94">
@@ -3056,23 +3749,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2500409514.927867</v>
+        <v>1555236240.668053</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1184555899461218</v>
+        <v>0.1558294753880565</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02880992932267885</v>
+        <v>0.03684193994888604</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3784,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3143460059.860443</v>
+        <v>3207408937.21675</v>
       </c>
       <c r="F95" t="n">
-        <v>0.08983937766552269</v>
+        <v>0.09933433982298726</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04686915832339015</v>
+        <v>0.04536616012801607</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3118,17 +3825,24 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2213880848.425223</v>
+        <v>1793317208.946274</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1238891991468744</v>
+        <v>0.09781745189166938</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03098562252175051</v>
+        <v>0.03584869829883271</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,22 +3854,31 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4765941501.389732</v>
+        <v>4137948258.232967</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1136733330458028</v>
+        <v>0.1481222737423645</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02192109017184708</v>
+        <v>0.0251591332917737</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>165</v>
+      </c>
+      <c r="J97" t="n">
+        <v>323</v>
+      </c>
+      <c r="K97" t="n">
+        <v>73.52248699878741</v>
       </c>
     </row>
     <row r="98">
@@ -3168,22 +3891,31 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2709859184.921299</v>
+        <v>3001463256.699701</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1104304030000545</v>
+        <v>0.08442817676217906</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02988062364774664</v>
+        <v>0.02314002649080271</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
+      </c>
+      <c r="I98" t="n">
+        <v>80</v>
+      </c>
+      <c r="J98" t="n">
+        <v>323</v>
+      </c>
+      <c r="K98" t="n">
+        <v>40.31031025792144</v>
       </c>
     </row>
     <row r="99">
@@ -3196,23 +3928,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2812628753.099008</v>
+        <v>2200442954.048827</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1279101367954743</v>
+        <v>0.1192566399874245</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02259267593983822</v>
+        <v>0.02640142596726528</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>5</v>
+      </c>
+      <c r="J99" t="n">
+        <v>262</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,22 +3963,31 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4276837183.244119</v>
+        <v>2915051212.734736</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1774110268463631</v>
+        <v>0.1783933412300996</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01701338372047401</v>
+        <v>0.02729208085766655</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>144</v>
+      </c>
+      <c r="J100" t="n">
+        <v>323</v>
+      </c>
+      <c r="K100" t="n">
+        <v>35.99333741693914</v>
       </c>
     </row>
     <row r="101">
@@ -3258,17 +4006,24 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2430154451.417789</v>
+        <v>2301230509.367811</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1917054177139983</v>
+        <v>0.1771525661019908</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03752523803611997</v>
+        <v>0.04509578506833335</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>29</v>
+      </c>
+      <c r="J101" t="n">
+        <v>310</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
